--- a/Dataset/Folds/Fold_5/Excel/31.xlsx
+++ b/Dataset/Folds/Fold_5/Excel/31.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2667" uniqueCount="424">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3003" uniqueCount="468">
   <si>
     <t>Doi</t>
   </si>
@@ -1536,6 +1536,157 @@
   </si>
   <si>
     <t>[Anthony%Dangis%NULL%0,                          Christopher%Gieraerts%NULL%2,                          Christopher%Gieraerts%NULL%0,                          Yves%De Bruecker%NULL%2,                          Yves%De Bruecker%NULL%0,                          Lode%Janssen%NULL%2,                          Lode%Janssen%NULL%0,                          Hanne%Valgaeren%NULL%2,                          Hanne%Valgaeren%NULL%0,                          Dagmar%Obbels%NULL%2,                          Dagmar%Obbels%NULL%0,                          Marc%Gillis%NULL%2,                          Marc%Gillis%NULL%0,                          Marc%Van Ranst%NULL%0,                          Marc%Van Ranst%NULL%0,                          Johan%Frans%NULL%0,                          Annick%Demeyere%NULL%2,                          Annick%Demeyere%NULL%0,                          Rolf%Symons%rolf.symons@imelda.be%0,                          Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,                           Zhenlu%Yang%NULL%2,                           Zhenlu%Yang%NULL%0,                           Hongyan%Hou%NULL%2,                           Hongyan%Hou%NULL%0,                           Chenao%Zhan%NULL%1,                           Chong%Chen%NULL%1,                           Wenzhi%Lv%NULL%2,                           Wenzhi%Lv%NULL%0,                           Qian%Tao%NULL%2,                           Qian%Tao%NULL%0,                           Ziyong%Sun%NULL%0,                           Ziyong%Sun%NULL%0,                           Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,                           Ben%Hsieh%NULL%1,                           Zeng%Xiong%NULL%2,                           Zeng%Xiong%NULL%0,                           Kasey%Halsey%NULL%2,                           Kasey%Halsey%NULL%0,                           Ji Whae%Choi%NULL%2,                           Ji Whae%Choi%NULL%0,                           Thi My Linh%Tran%NULL%2,                           Thi My Linh%Tran%NULL%0,                           Ian%Pan%NULL%2,                           Ian%Pan%NULL%0,                           Lin-Bo%Shi%NULL%2,                           Lin-Bo%Shi%NULL%0,                           Dong-Cui%Wang%NULL%1,                           Ji%Mei%NULL%2,                           Ji%Mei%NULL%0,                           Xiao-Long%Jiang%NULL%1,                           Qiu-Hua%Zeng%NULL%1,                           Thomas K.%Egglin%NULL%1,                           Ping-Feng%Hu%NULL%2,                           Ping-Feng%Hu%NULL%0,                           Saurabh%Agarwal%NULL%1,                           Fangfang%Xie%NULL%2,                           Fangfang%Xie%NULL%0,                           Sha%Li%NULL%1,                           Terrance%Healey%NULL%2,                           Terrance%Healey%NULL%0,                           Michael K.%Atalay%NULL%1,                           Wei-Hua%Liao%liaoweihua2017@163.com%2,                           Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,                           Xiaolong%Qi%NULL%0,                           Xiaolong%Qi%NULL%0,                           Soon Ho%Yoon%yshoka@gmail.com%2,                           Soon Ho%Yoon%yshoka@gmail.com%0,                           Sang Joon%Park%NULL%2,                           Sang Joon%Park%NULL%0,                           Kyung Hee%Lee%NULL%2,                           Kyung Hee%Lee%NULL%0,                           Jin Yong%Kim%NULL%0,                           Jin Yong%Kim%NULL%0,                           Young Kyung%Lee%NULL%2,                           Young Kyung%Lee%NULL%0,                           Hongseok%Ko%NULL%2,                           Hongseok%Ko%NULL%0,                           Ki Hwan%Kim%NULL%2,                           Ki Hwan%Kim%NULL%0,                           Chang Min%Park%NULL%2,                           Chang Min%Park%NULL%0,                           Yun-Hyeon%Kim%NULL%2,                           Yun-Hyeon%Kim%NULL%0,                           Junqiang%Lei%NULL%2,                           Junqiang%Lei%NULL%0,                           Jung Hee%Hong%NULL%2,                           Jung Hee%Hong%NULL%0,                           Hyungjin%Kim%NULL%2,                           Hyungjin%Kim%NULL%0,                           Eui Jin%Hwang%NULL%2,                           Eui Jin%Hwang%NULL%0,                           Seung Jin%Yoo%NULL%2,                           Seung Jin%Yoo%NULL%0,                           Ju Gang%Nam%NULL%2,                           Ju Gang%Nam%NULL%0,                           Chang Hyun%Lee%NULL%2,                           Chang Hyun%Lee%NULL%0,                           Jin Mo%Goo%NULL%2,                           Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,                           Yanyan%Tang%NULL%1,                           Yongkang%Mo%NULL%1,                           Shengkai%Li%NULL%1,                           Daiying%Lin%NULL%1,                           Zhijian%Yang%NULL%1,                           Zhiqi%Yang%NULL%1,                           Hongfu%Sun%NULL%1,                           Jinming%Qiu%NULL%1,                           Yuting%Liao%NULL%1,                           Jianning%Xiao%NULL%1,                           Xiangguang%Chen%NULL%1,                           Xianheng%Wu%NULL%1,                           Renhua%Wu%NULL%1,                           Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,                           Marta%Zerunian%NULL%2,                           Marta%Zerunian%NULL%0,                           Michela%Polici%NULL%2,                           Michela%Polici%NULL%0,                           Francesco%Pucciarelli%NULL%2,                           Francesco%Pucciarelli%NULL%0,                           Tiziano%Polidori%NULL%2,                           Tiziano%Polidori%NULL%0,                           Carlotta%Rucci%NULL%2,                           Carlotta%Rucci%NULL%0,                           Gisella%Guido%NULL%2,                           Gisella%Guido%NULL%0,                           Benedetta%Bracci%NULL%2,                           Benedetta%Bracci%NULL%0,                           Chiara%de Dominicis%NULL%2,                           Chiara%de Dominicis%NULL%0,                           Andrea%Laghi%andrea.laghi@uniroma1.it%2,                           Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,                           Akihiko%Sakata%NULL%1,                           Mitsuhiro%Kirita%NULL%1,                           Takashi%Hiroi%NULL%1,                           Ken-ichiro%Kobayashi%NULL%1,                           Kenji%Kubo%NULL%1,                           Hyunjin%Kim%NULL%1,                           Azusa%Nishimoto%NULL%1,                           Chikara%Maeda%NULL%1,                           Akira%Kawamura%NULL%1,                           Nobuhiro%Komiya%NULL%1,                           Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,                           Huaxiang%Xu%NULL%1,                           Qinglin%Shen%NULL%1,                           Xianghai%Zhang%NULL%1,                           Bing%Fan%26171381@qq.com%0,                           Chuanhong%Wang%NULL%1,                           Bingliang%Zeng%NULL%1,                           Zicong%Li%NULL%1,                           Xiaofen%Li%NULL%1,                           Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%0,                           Mengdi%Jin%NULL%1,                           Li%Miao%NULL%1,                           Xinying%Yang%NULL%1,                           Peng%Huang%NULL%1,                           Huanwen%Xiong%NULL%1,                           Peijie%Huang%NULL%1,                           Qi%Zhao%NULL%1,                           Jiang%Du%NULL%1,                           Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%0,                           Yonge%Chi%NULL%2,                           Yonge%Chi%NULL%0,                           Liang%Zhang%NULL%2,                           Liang%Zhang%NULL%0,                           Huan%Liu%NULL%0,                           Huan%Liu%NULL%0,                           Kun%Du%NULL%1,                           Zhengxing%Li%NULL%2,                           Zhengxing%Li%NULL%0,                           Jie%Chen%NULL%2,                           Jie%Chen%NULL%0,                           Liuhui%Cheng%NULL%2,                           Liuhui%Cheng%NULL%0,                           Daoqing%Wang%wangdaoqing1215@126.com%2,                           Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,                           Guoqiang%Sun%NULL%0,                           Fei%Tang%NULL%1,                           Min%Peng%NULL%0,                           Ying%Gao%NULL%1,                           Jing%Peng%NULL%1,                           Hui%Xie%NULL%1,                           Yun%Zhao%NULL%1,                           Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                           Kai%Xie%NULL%0,                           Kai%Xie%NULL%0,                           Hui%Lu%NULL%0,                           Lei%Xu%bayinhexl@126.com%0,                           Shusheng%Zhou%zhouss108@163.com%0,                           Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,                           Christopher%Gieraerts%NULL%2,                           Christopher%Gieraerts%NULL%0,                           Yves%De Bruecker%NULL%2,                           Yves%De Bruecker%NULL%0,                           Lode%Janssen%NULL%2,                           Lode%Janssen%NULL%0,                           Hanne%Valgaeren%NULL%2,                           Hanne%Valgaeren%NULL%0,                           Dagmar%Obbels%NULL%2,                           Dagmar%Obbels%NULL%0,                           Marc%Gillis%NULL%2,                           Marc%Gillis%NULL%0,                           Marc%Van Ranst%NULL%0,                           Marc%Van Ranst%NULL%0,                           Johan%Frans%NULL%0,                           Annick%Demeyere%NULL%2,                           Annick%Demeyere%NULL%0,                           Rolf%Symons%rolf.symons@imelda.be%0,                           Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0,                            Zhenlu%Yang%NULL%2,                            Zhenlu%Yang%NULL%0,                            Hongyan%Hou%NULL%2,                            Hongyan%Hou%NULL%0,                            Chenao%Zhan%NULL%1,                            Chong%Chen%NULL%1,                            Wenzhi%Lv%NULL%2,                            Wenzhi%Lv%NULL%0,                            Qian%Tao%NULL%2,                            Qian%Tao%NULL%0,                            Ziyong%Sun%NULL%0,                            Ziyong%Sun%NULL%0,                            Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0,                            Ben%Hsieh%NULL%1,                            Zeng%Xiong%NULL%2,                            Zeng%Xiong%NULL%0,                            Kasey%Halsey%NULL%2,                            Kasey%Halsey%NULL%0,                            Ji Whae%Choi%NULL%2,                            Ji Whae%Choi%NULL%0,                            Thi My Linh%Tran%NULL%2,                            Thi My Linh%Tran%NULL%0,                            Ian%Pan%NULL%2,                            Ian%Pan%NULL%0,                            Lin-Bo%Shi%NULL%2,                            Lin-Bo%Shi%NULL%0,                            Dong-Cui%Wang%NULL%1,                            Ji%Mei%NULL%2,                            Ji%Mei%NULL%0,                            Xiao-Long%Jiang%NULL%1,                            Qiu-Hua%Zeng%NULL%1,                            Thomas K.%Egglin%NULL%1,                            Ping-Feng%Hu%NULL%2,                            Ping-Feng%Hu%NULL%0,                            Saurabh%Agarwal%NULL%1,                            Fangfang%Xie%NULL%2,                            Fangfang%Xie%NULL%0,                            Sha%Li%NULL%1,                            Terrance%Healey%NULL%2,                            Terrance%Healey%NULL%0,                            Michael K.%Atalay%NULL%1,                            Wei-Hua%Liao%liaoweihua2017@163.com%2,                            Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0,                            Xiaolong%Qi%NULL%0,                            Xiaolong%Qi%NULL%0,                            Soon Ho%Yoon%yshoka@gmail.com%2,                            Soon Ho%Yoon%yshoka@gmail.com%0,                            Sang Joon%Park%NULL%2,                            Sang Joon%Park%NULL%0,                            Kyung Hee%Lee%NULL%2,                            Kyung Hee%Lee%NULL%0,                            Jin Yong%Kim%NULL%0,                            Jin Yong%Kim%NULL%0,                            Young Kyung%Lee%NULL%2,                            Young Kyung%Lee%NULL%0,                            Hongseok%Ko%NULL%2,                            Hongseok%Ko%NULL%0,                            Ki Hwan%Kim%NULL%2,                            Ki Hwan%Kim%NULL%0,                            Chang Min%Park%NULL%2,                            Chang Min%Park%NULL%0,                            Yun-Hyeon%Kim%NULL%2,                            Yun-Hyeon%Kim%NULL%0,                            Junqiang%Lei%NULL%2,                            Junqiang%Lei%NULL%0,                            Jung Hee%Hong%NULL%2,                            Jung Hee%Hong%NULL%0,                            Hyungjin%Kim%NULL%2,                            Hyungjin%Kim%NULL%0,                            Eui Jin%Hwang%NULL%2,                            Eui Jin%Hwang%NULL%0,                            Seung Jin%Yoo%NULL%2,                            Seung Jin%Yoo%NULL%0,                            Ju Gang%Nam%NULL%2,                            Ju Gang%Nam%NULL%0,                            Chang Hyun%Lee%NULL%2,                            Chang Hyun%Lee%NULL%0,                            Jin Mo%Goo%NULL%2,                            Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0,                            Yanyan%Tang%NULL%1,                            Yongkang%Mo%NULL%1,                            Shengkai%Li%NULL%1,                            Daiying%Lin%NULL%1,                            Zhijian%Yang%NULL%1,                            Zhiqi%Yang%NULL%1,                            Hongfu%Sun%NULL%1,                            Jinming%Qiu%NULL%1,                            Yuting%Liao%NULL%1,                            Jianning%Xiao%NULL%1,                            Xiangguang%Chen%NULL%1,                            Xianheng%Wu%NULL%1,                            Renhua%Wu%NULL%1,                            Zhuozhi%Dai%zhuozhi@ualberta.ca%1]</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0,                            Marta%Zerunian%NULL%2,                            Marta%Zerunian%NULL%0,                            Michela%Polici%NULL%2,                            Michela%Polici%NULL%0,                            Francesco%Pucciarelli%NULL%2,                            Francesco%Pucciarelli%NULL%0,                            Tiziano%Polidori%NULL%2,                            Tiziano%Polidori%NULL%0,                            Carlotta%Rucci%NULL%2,                            Carlotta%Rucci%NULL%0,                            Gisella%Guido%NULL%2,                            Gisella%Guido%NULL%0,                            Benedetta%Bracci%NULL%2,                            Benedetta%Bracci%NULL%0,                            Chiara%de Dominicis%NULL%2,                            Chiara%de Dominicis%NULL%0,                            Andrea%Laghi%andrea.laghi@uniroma1.it%2,                            Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0,                            Akihiko%Sakata%NULL%1,                            Mitsuhiro%Kirita%NULL%1,                            Takashi%Hiroi%NULL%1,                            Ken-ichiro%Kobayashi%NULL%1,                            Kenji%Kubo%NULL%1,                            Hyunjin%Kim%NULL%1,                            Azusa%Nishimoto%NULL%1,                            Chikara%Maeda%NULL%1,                            Akira%Kawamura%NULL%1,                            Nobuhiro%Komiya%NULL%1,                            Shigeaki%Umeoka%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0,                            Huaxiang%Xu%NULL%1,                            Qinglin%Shen%NULL%1,                            Xianghai%Zhang%NULL%1,                            Bing%Fan%26171381@qq.com%0,                            Chuanhong%Wang%NULL%1,                            Bingliang%Zeng%NULL%1,                            Zicong%Li%NULL%1,                            Xiaofen%Li%NULL%1,                            Honglu%Li%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%0,                            Mengdi%Jin%NULL%1,                            Li%Miao%NULL%1,                            Xinying%Yang%NULL%1,                            Peng%Huang%NULL%1,                            Huanwen%Xiong%NULL%1,                            Peijie%Huang%NULL%1,                            Qi%Zhao%NULL%1,                            Jiang%Du%NULL%1,                            Jiang%Hong%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%0,                            Yonge%Chi%NULL%2,                            Yonge%Chi%NULL%0,                            Liang%Zhang%NULL%2,                            Liang%Zhang%NULL%0,                            Huan%Liu%NULL%0,                            Huan%Liu%NULL%0,                            Kun%Du%NULL%1,                            Zhengxing%Li%NULL%2,                            Zhengxing%Li%NULL%0,                            Jie%Chen%NULL%2,                            Jie%Chen%NULL%0,                            Liuhui%Cheng%NULL%2,                            Liuhui%Cheng%NULL%0,                            Daoqing%Wang%wangdaoqing1215@126.com%2,                            Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%1,                            Guoqiang%Sun%NULL%0,                            Fei%Tang%NULL%1,                            Min%Peng%NULL%0,                            Ying%Gao%NULL%1,                            Jing%Peng%NULL%1,                            Hui%Xie%NULL%1,                            Yun%Zhao%NULL%1,                            Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0,                            Kai%Xie%NULL%0,                            Kai%Xie%NULL%0,                            Hui%Lu%NULL%0,                            Lei%Xu%bayinhexl@126.com%0,                            Shusheng%Zhou%zhouss108@163.com%0,                            Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0,                            Christopher%Gieraerts%NULL%2,                            Christopher%Gieraerts%NULL%0,                            Yves%De Bruecker%NULL%2,                            Yves%De Bruecker%NULL%0,                            Lode%Janssen%NULL%2,                            Lode%Janssen%NULL%0,                            Hanne%Valgaeren%NULL%2,                            Hanne%Valgaeren%NULL%0,                            Dagmar%Obbels%NULL%2,                            Dagmar%Obbels%NULL%0,                            Marc%Gillis%NULL%2,                            Marc%Gillis%NULL%0,                            Marc%Van Ranst%NULL%2,                            Marc%Van Ranst%NULL%0,                            Johan%Frans%NULL%0,                            Annick%Demeyere%NULL%2,                            Annick%Demeyere%NULL%0,                            Rolf%Symons%rolf.symons@imelda.be%0,                            Rolf%Symons%rolf.symons@imelda.be%0]</t>
+  </si>
+  <si>
+    <t>[Tao%Ai%NULL%0, Zhenlu%Yang%NULL%0, Zhenlu%Yang%NULL%0, Hongyan%Hou%NULL%0, Hongyan%Hou%NULL%0, Chenao%Zhan%NULL%0, Chong%Chen%NULL%0, Wenzhi%Lv%NULL%0, Wenzhi%Lv%NULL%0, Qian%Tao%NULL%0, Qian%Tao%NULL%0, Ziyong%Sun%NULL%0, Ziyong%Sun%NULL%0, Liming%Xia%xialiming2017@outlook.com%0]</t>
+  </si>
+  <si>
+    <t>Radiological Society of North America</t>
+  </si>
+  <si>
+    <t>[Harrison X.%Bai%NULL%0, Ben%Hsieh%NULL%0, Zeng%Xiong%NULL%0, Zeng%Xiong%NULL%0, Kasey%Halsey%NULL%0, Kasey%Halsey%NULL%0, Ji Whae%Choi%NULL%0, Ji Whae%Choi%NULL%0, Thi My Linh%Tran%NULL%0, Thi My Linh%Tran%NULL%0, Ian%Pan%NULL%0, Ian%Pan%NULL%0, Lin-Bo%Shi%NULL%0, Lin-Bo%Shi%NULL%0, Dong-Cui%Wang%NULL%0, Ji%Mei%NULL%0, Ji%Mei%NULL%0, Xiao-Long%Jiang%NULL%0, Qiu-Hua%Zeng%NULL%0, Thomas K.%Egglin%NULL%0, Ping-Feng%Hu%NULL%0, Ping-Feng%Hu%NULL%0, Saurabh%Agarwal%NULL%0, Fangfang%Xie%NULL%0, Fangfang%Xie%NULL%0, Sha%Li%NULL%0, Terrance%Healey%NULL%0, Terrance%Healey%NULL%0, Michael K.%Atalay%NULL%0, Wei-Hua%Liao%liaoweihua2017@163.com%0, Wei-Hua%Liao%liaoweihua2017@163.com%0]</t>
+  </si>
+  <si>
+    <t>[Hyewon%Choi%NULL%0, Xiaolong%Qi%NULL%0, Xiaolong%Qi%NULL%0, Soon Ho%Yoon%yshoka@gmail.com%0, Soon Ho%Yoon%yshoka@gmail.com%0, Sang Joon%Park%NULL%0, Sang Joon%Park%NULL%0, Kyung Hee%Lee%NULL%0, Kyung Hee%Lee%NULL%0, Jin Yong%Kim%NULL%0, Jin Yong%Kim%NULL%0, Young Kyung%Lee%NULL%0, Young Kyung%Lee%NULL%0, Hongseok%Ko%NULL%0, Hongseok%Ko%NULL%0, Ki Hwan%Kim%NULL%0, Ki Hwan%Kim%NULL%0, Chang Min%Park%NULL%0, Chang Min%Park%NULL%0, Yun-Hyeon%Kim%NULL%0, Yun-Hyeon%Kim%NULL%0, Junqiang%Lei%NULL%0, Junqiang%Lei%NULL%0, Jung Hee%Hong%NULL%0, Jung Hee%Hong%NULL%0, Hyungjin%Kim%NULL%0, Hyungjin%Kim%NULL%0, Eui Jin%Hwang%NULL%0, Eui Jin%Hwang%NULL%0, Seung Jin%Yoo%NULL%0, Seung Jin%Yoo%NULL%0, Ju Gang%Nam%NULL%0, Ju Gang%Nam%NULL%0, Chang Hyun%Lee%NULL%0, Chang Hyun%Lee%NULL%0, Jin Mo%Goo%NULL%0, Jin Mo%Goo%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xiaofeng%Chen%NULL%0, Yanyan%Tang%NULL%0, Yongkang%Mo%NULL%0, Shengkai%Li%NULL%0, Daiying%Lin%NULL%0, Zhijian%Yang%NULL%0, Zhiqi%Yang%NULL%0, Hongfu%Sun%NULL%0, Jinming%Qiu%NULL%0, Yuting%Liao%NULL%0, Jianning%Xiao%NULL%0, Xiangguang%Chen%NULL%0, Xianheng%Wu%NULL%0, Renhua%Wu%NULL%0, Zhuozhi%Dai%zhuozhi@ualberta.ca%0]</t>
+  </si>
+  <si>
+    <t>Springer Berlin Heidelberg</t>
+  </si>
+  <si>
+    <t>[Damiano%Caruso%NULL%0, Marta%Zerunian%NULL%0, Marta%Zerunian%NULL%0, Michela%Polici%NULL%0, Michela%Polici%NULL%0, Francesco%Pucciarelli%NULL%0, Francesco%Pucciarelli%NULL%0, Tiziano%Polidori%NULL%0, Tiziano%Polidori%NULL%0, Carlotta%Rucci%NULL%0, Carlotta%Rucci%NULL%0, Gisella%Guido%NULL%0, Gisella%Guido%NULL%0, Benedetta%Bracci%NULL%0, Benedetta%Bracci%NULL%0, Chiara%de Dominicis%NULL%0, Chiara%de Dominicis%NULL%0, Andrea%Laghi%andrea.laghi@uniroma1.it%0, Andrea%Laghi%andrea.laghi@uniroma1.it%0]</t>
+  </si>
+  <si>
+    <t>[Yuki%Himoto%yukihimoto@gmail.com%0, Akihiko%Sakata%NULL%0, Mitsuhiro%Kirita%NULL%0, Takashi%Hiroi%NULL%0, Ken-ichiro%Kobayashi%NULL%0, Kenji%Kubo%NULL%0, Hyunjin%Kim%NULL%0, Azusa%Nishimoto%NULL%0, Chikara%Maeda%NULL%0, Akira%Kawamura%NULL%0, Nobuhiro%Komiya%NULL%0, Shigeaki%Umeoka%NULL%0]</t>
+  </si>
+  <si>
+    <t>Springer Singapore</t>
+  </si>
+  <si>
+    <t>[Chunqin%Long%NULL%0, Huaxiang%Xu%NULL%0, Qinglin%Shen%NULL%0, Xianghai%Zhang%NULL%0, Bing%Fan%26171381@qq.com%0, Chuanhong%Wang%NULL%0, Bingliang%Zeng%NULL%0, Zicong%Li%NULL%0, Xiaofen%Li%NULL%0, Honglu%Li%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier B.V.</t>
+  </si>
+  <si>
+    <t>[Congliang%Miao%NULL%0, Mengdi%Jin%NULL%0, Li%Miao%NULL%0, Xinying%Yang%NULL%0, Peng%Huang%NULL%0, Huanwen%Xiong%NULL%0, Peijie%Huang%NULL%0, Qi%Zhao%NULL%0, Jiang%Du%NULL%0, Jiang%Hong%NULL%0]</t>
+  </si>
+  <si>
+    <t>Elsevier Inc.</t>
+  </si>
+  <si>
+    <t>[Zeying%Wen%NULL%0, Yonge%Chi%NULL%0, Yonge%Chi%NULL%0, Liang%Zhang%NULL%0, Liang%Zhang%NULL%0, Huan%Liu%NULL%0, Huan%Liu%NULL%0, Kun%Du%NULL%0, Zhengxing%Li%NULL%0, Zhengxing%Li%NULL%0, Jie%Chen%NULL%0, Jie%Chen%NULL%0, Liuhui%Cheng%NULL%0, Liuhui%Cheng%NULL%0, Daoqing%Wang%wangdaoqing1215@126.com%0, Daoqing%Wang%wangdaoqing1215@126.com%0]</t>
+  </si>
+  <si>
+    <t>[Hui%yang%NULL%0, Guoqiang%Sun%NULL%0, Fei%Tang%NULL%1, Min%Peng%NULL%0, Ying%Gao%NULL%2, Jing%Peng%NULL%1, Hui%Xie%NULL%1, Yun%Zhao%NULL%0, Zhichun%Jin%NULL%1]</t>
+  </si>
+  <si>
+    <t>Published by Elsevier Ltd on behalf of The British Infection Association.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">With an increasing number of Coronavirus Disease 2019 (COVID‐19) cases outside of Hubei, emergency departments (EDs) and fever clinics are facing challenges posed by the large number of admissions of patients suspected to have COVID‐19. Therefore, it is of crucial importance to study the initial clinical features of patients, to better differentiate between infected and uninfected patients outside Hubei.
+ A total of 116 patients suspected of having COVID‐19 who presented to two emergency departments in Anhui for the first time between 24 January 2020 and 20 February 2020 were enrolled in the study.
+ The initial clinical data of these patients, such as epidemiological features, symptoms, laboratory results, and chest computed tomography (CT) findings were collected using a standard case report form on admission.
+ Thirty‐two patients were diagnosed with COVID‐19; the remaining 84 patients were referred to as negative cases.
+ The median age of the diagnosed patients was 46 years, but only 35 years for negative cases.
+ History of exposure to Wuhan or COVID‐19 patients in the previous 2 weeks was observed in 63% of the diagnosed and 44% of negative cases.
+ Median time from illness onset to ED admission was 5 days for all patients, diagnosed patients, and negative cases, respectively.
+ Fever was observed in 27 (84%) and 57 (68%) diagnosed and negative cases, respectively.
+ Nineteen (59%) diagnosed and 24 (29%) negative cases had lymphopenia on admission in ED.
+ A chest CT scan on admission revealed the presence of pneumonia in the majority of the diagnosed patients (30 out of 32, 94%) and in 56 (67%) negative cases.
+ Bilateral involvement and ground‐glass opacity (GGO) were present in 91% and 47% of the diagnosed patients.
+ Thirty‐two patients were diagnosed with COVID‐19; the remaining 84 patients were referred to as negative cases.
+ The median age of the diagnosed patients was 46 years, but only 35 years for negative cases.
+ History of exposure to Wuhan or COVID‐19 patients in the previous 2 weeks was observed in 63% of the diagnosed and 44% of negative cases.
+ Median time from illness onset to ED admission was 5 days for all patients, diagnosed patients, and negative cases, respectively.
+ Fever was observed in 27 (84%) and 57 (68%) diagnosed and negative cases, respectively.
+ Nineteen (59%) diagnosed and 24 (29%) negative cases had lymphopenia on admission in ED.
+ A chest CT scan on admission revealed the presence of pneumonia in the majority of the diagnosed patients (30 out of 32, 94%) and in 56 (67%) negative cases.
+ Bilateral involvement and GGO were present in 91% and 47% of the diagnosed patients.
+</t>
+  </si>
+  <si>
+    <t>[Wanbo%Zhu%NULL%0, Kai%Xie%NULL%0, Kai%Xie%NULL%0, Hui%Lu%NULL%0, Lei%Xu%bayinhexl@126.com%0, Shusheng%Zhou%zhouss108@163.com%0, Shiyuan%Fang%fangshiyuan2008@126.com%0]</t>
+  </si>
+  <si>
+    <t>John Wiley and Sons Inc.</t>
+  </si>
+  <si>
+    <t>[Anthony%Dangis%NULL%0, Christopher%Gieraerts%NULL%0, Christopher%Gieraerts%NULL%0, Yves%De Bruecker%NULL%0, Yves%De Bruecker%NULL%0, Lode%Janssen%NULL%0, Lode%Janssen%NULL%0, Hanne%Valgaeren%NULL%0, Hanne%Valgaeren%NULL%0, Dagmar%Obbels%NULL%0, Dagmar%Obbels%NULL%0, Marc%Gillis%NULL%0, Marc%Gillis%NULL%0, Marc%Van Ranst%NULL%0, Marc%Van Ranst%NULL%0, Johan%Frans%NULL%0, Annick%Demeyere%NULL%0, Annick%Demeyere%NULL%0, Rolf%Symons%rolf.symons@imelda.be%0, Rolf%Symons%rolf.symons@imelda.be%0]</t>
   </si>
 </sst>
 </file>
@@ -1904,7 +2055,7 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>411</v>
+        <v>448</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -1916,10 +2067,10 @@
         <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>301</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>28</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1936,7 +2087,7 @@
         <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="F3" t="s">
         <v>32</v>
@@ -1948,10 +2099,10 @@
         <v>27</v>
       </c>
       <c r="I3" t="s">
-        <v>301</v>
+        <v>28</v>
       </c>
       <c r="J3" t="s">
-        <v>28</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1962,28 +2113,28 @@
         <v>43888</v>
       </c>
       <c r="C4" t="s">
-        <v>154</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>413</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>156</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>334</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s">
         <v>28</v>
       </c>
       <c r="J4" t="s">
-        <v>335</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -2000,7 +2151,7 @@
         <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="F5" t="s">
         <v>41</v>
@@ -2012,10 +2163,10 @@
         <v>42</v>
       </c>
       <c r="I5" t="s">
-        <v>301</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -2029,10 +2180,10 @@
         <v>43</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>415</v>
+        <v>452</v>
       </c>
       <c r="F6" t="s">
         <v>46</v>
@@ -2044,10 +2195,10 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>307</v>
+        <v>28</v>
       </c>
       <c r="J6" t="s">
-        <v>28</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -2064,7 +2215,7 @@
         <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="F7" t="s">
         <v>52</v>
@@ -2076,10 +2227,10 @@
         <v>27</v>
       </c>
       <c r="I7" t="s">
-        <v>301</v>
+        <v>28</v>
       </c>
       <c r="J7" t="s">
-        <v>28</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -2093,10 +2244,10 @@
         <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>214</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>417</v>
+        <v>455</v>
       </c>
       <c r="F8" t="s">
         <v>56</v>
@@ -2108,10 +2259,10 @@
         <v>57</v>
       </c>
       <c r="I8" t="s">
-        <v>307</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>456</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -2128,7 +2279,7 @@
         <v>59</v>
       </c>
       <c r="E9" t="s">
-        <v>418</v>
+        <v>457</v>
       </c>
       <c r="F9" t="s">
         <v>61</v>
@@ -2140,10 +2291,10 @@
         <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>311</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -2160,7 +2311,7 @@
         <v>65</v>
       </c>
       <c r="E10" t="s">
-        <v>419</v>
+        <v>459</v>
       </c>
       <c r="F10" t="s">
         <v>67</v>
@@ -2172,10 +2323,10 @@
         <v>68</v>
       </c>
       <c r="I10" t="s">
-        <v>311</v>
+        <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>28</v>
+        <v>460</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -2192,7 +2343,7 @@
         <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>420</v>
+        <v>461</v>
       </c>
       <c r="F11" t="s">
         <v>72</v>
@@ -2204,10 +2355,10 @@
         <v>73</v>
       </c>
       <c r="I11" t="s">
-        <v>301</v>
+        <v>28</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -2224,7 +2375,7 @@
         <v>75</v>
       </c>
       <c r="E12" t="s">
-        <v>421</v>
+        <v>462</v>
       </c>
       <c r="F12" t="s">
         <v>77</v>
@@ -2236,10 +2387,10 @@
         <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>311</v>
+        <v>28</v>
       </c>
       <c r="J12" t="s">
-        <v>28</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -2253,10 +2404,10 @@
         <v>79</v>
       </c>
       <c r="D13" t="s">
-        <v>80</v>
+        <v>464</v>
       </c>
       <c r="E13" t="s">
-        <v>422</v>
+        <v>465</v>
       </c>
       <c r="F13" t="s">
         <v>82</v>
@@ -2268,10 +2419,10 @@
         <v>83</v>
       </c>
       <c r="I13" t="s">
-        <v>301</v>
+        <v>28</v>
       </c>
       <c r="J13" t="s">
-        <v>28</v>
+        <v>466</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -2288,7 +2439,7 @@
         <v>85</v>
       </c>
       <c r="E14" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="F14" t="s">
         <v>87</v>
@@ -2300,10 +2451,10 @@
         <v>88</v>
       </c>
       <c r="I14" t="s">
-        <v>301</v>
+        <v>28</v>
       </c>
       <c r="J14" t="s">
-        <v>28</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
